--- a/buffer_timing.xlsx
+++ b/buffer_timing.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\DvG_Arduino_lock-in_amp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04563CBC-49FD-4614-8C6C-0A4357A6D1F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E930AF99-E36E-4982-8AB8-5CFD9E14BD34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27552" windowHeight="13968" xr2:uid="{16EC86EA-8ED0-4777-A553-FFC5A6BF8EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$S$10</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,85 +28,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>.1</t>
-  </si>
-  <si>
-    <t>.2</t>
-  </si>
-  <si>
-    <t>.3</t>
-  </si>
-  <si>
-    <t>.4</t>
-  </si>
-  <si>
-    <t>.5</t>
-  </si>
-  <si>
-    <t>.6</t>
-  </si>
-  <si>
-    <t>.7</t>
-  </si>
-  <si>
-    <t>.8</t>
-  </si>
-  <si>
-    <t>.9</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>4'</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>ref_X</t>
-  </si>
-  <si>
-    <t>sig_I</t>
-  </si>
-  <si>
-    <t>Color indicates data to send out with 4 samples per send.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+  <si>
+    <t>write cycle</t>
+  </si>
+  <si>
+    <t>write time to index</t>
+  </si>
+  <si>
+    <t>write sig_I to index</t>
+  </si>
+  <si>
+    <t>write ref_X to index</t>
+  </si>
+  <si>
+    <t>startup
+0</t>
+  </si>
+  <si>
+    <t>time stamp</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>Thick lines indicate buffer sends of each 4 samples</t>
+  </si>
+  <si>
+    <t>Employing double buffer [A; B]</t>
+  </si>
+  <si>
+    <t>send buffer #</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>send
+4</t>
+  </si>
+  <si>
+    <t>send
+8</t>
+  </si>
+  <si>
+    <t>send
+12</t>
+  </si>
+  <si>
+    <t>send
+16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +150,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,30 +177,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,31 +214,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,268 +702,358 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:S8"/>
+  <dimension ref="A2:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="2.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6">
+        <v>7</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="6">
+        <v>11</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>14</v>
+      </c>
+      <c r="R2" s="6">
+        <v>15</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="R3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13">
+        <v>5</v>
+      </c>
+      <c r="I4" s="16">
+        <v>6</v>
+      </c>
+      <c r="J4" s="25">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="L4" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="M4" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="N4" s="25">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="O4" s="10">
+        <v>4</v>
+      </c>
+      <c r="P4" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>6</v>
+      </c>
+      <c r="R4" s="25">
+        <v>7</v>
+      </c>
+      <c r="S4" s="22">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" s="20" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="F5" s="25">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5</v>
+      </c>
+      <c r="I5" s="16">
+        <v>6</v>
+      </c>
+      <c r="J5" s="25">
+        <v>7</v>
+      </c>
+      <c r="K5" s="11">
         <v>0</v>
       </c>
-      <c r="P2" s="2">
+      <c r="L5" s="13">
         <v>1</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="M5" s="16">
         <v>2</v>
       </c>
-      <c r="R2" s="2">
+      <c r="N5" s="25">
         <v>3</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="O5" s="11">
+        <v>4</v>
+      </c>
+      <c r="P5" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>6</v>
+      </c>
+      <c r="R5" s="25">
+        <v>7</v>
+      </c>
+      <c r="S5" s="22">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="7"/>
-      <c r="S3" s="2"/>
+    <row r="6" spans="1:22" s="20" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="G6" s="25">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14">
+        <v>5</v>
+      </c>
+      <c r="J6" s="15">
+        <v>6</v>
+      </c>
+      <c r="K6" s="25">
+        <v>7</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>2</v>
+      </c>
+      <c r="O6" s="25">
+        <v>3</v>
+      </c>
+      <c r="P6" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>5</v>
+      </c>
+      <c r="R6" s="15">
+        <v>6</v>
+      </c>
+      <c r="S6" s="24">
+        <v>7</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
-    <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="7"/>
-      <c r="S7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="29" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="8" t="s">
+    <row r="9" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="S8" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="21" x14ac:dyDescent="0.4">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="54" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>